--- a/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5929</v>
+        <v>6792</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002819231067688458</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00855429193673268</v>
+        <v>0.009798560970278428</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10591</v>
+        <v>9799</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005074285223217295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001423267175101812</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01540775608948382</v>
+        <v>0.01425518061819426</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>5442</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12117</v>
+        <v>12218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003942059957275903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00143567104495668</v>
+        <v>0.001434510687422833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00877722491830975</v>
+        <v>0.008850387852364701</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>86280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70727</v>
+        <v>71764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105473</v>
+        <v>105168</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.124479713676697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.102041258647807</v>
+        <v>0.1035372545937989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1521698897219415</v>
+        <v>0.1517306869511288</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -835,19 +835,19 @@
         <v>73636</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56400</v>
+        <v>60385</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91145</v>
+        <v>92180</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1071271233533927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08205107563394716</v>
+        <v>0.08784886735385269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1325984853174003</v>
+        <v>0.1341038539697991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -856,19 +856,19 @@
         <v>159917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>135144</v>
+        <v>137485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186177</v>
+        <v>185290</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1158395709659724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09789474994947994</v>
+        <v>0.09959080262165071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1348619257797746</v>
+        <v>0.1342197300984964</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>425730</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>402095</v>
+        <v>399487</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>450263</v>
+        <v>451554</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6142176829414615</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.580117698940559</v>
+        <v>0.5763557809194749</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6496126858237928</v>
+        <v>0.6514751988153372</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>427</v>
@@ -906,19 +906,19 @@
         <v>420621</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>394925</v>
+        <v>396108</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>445773</v>
+        <v>445538</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.611923820393153</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5745422898390332</v>
+        <v>0.5762626652800532</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6485161913774552</v>
+        <v>0.648173395893252</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>848</v>
@@ -927,19 +927,19 @@
         <v>846351</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>811218</v>
+        <v>811827</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>883409</v>
+        <v>881956</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6130755307090334</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5876265544130369</v>
+        <v>0.5880674438917071</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6399198206277608</v>
+        <v>0.638867121162208</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>174313</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>155186</v>
+        <v>152557</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>197750</v>
+        <v>198858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2514883716861087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2238927391323463</v>
+        <v>0.2201005738133961</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2853018797255135</v>
+        <v>0.2869002344941747</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -977,19 +977,19 @@
         <v>182925</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162175</v>
+        <v>160514</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206837</v>
+        <v>205586</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2661212868312692</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2359338921143755</v>
+        <v>0.2335176665922327</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3009091506373735</v>
+        <v>0.2990888954031491</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>357</v>
@@ -998,19 +998,19 @@
         <v>357238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>323089</v>
+        <v>322772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>387839</v>
+        <v>390262</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2587743429890971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2340378550606961</v>
+        <v>0.2338078117604271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2809407992475484</v>
+        <v>0.282696178622092</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>4848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1874</v>
+        <v>1898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10285</v>
+        <v>10765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00699500062804435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002703698616177221</v>
+        <v>0.002738239116709733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01483851415097675</v>
+        <v>0.0155306715801335</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1048,19 +1048,19 @@
         <v>6704</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12697</v>
+        <v>12764</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009753484198967873</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004145853891541809</v>
+        <v>0.004149549116546464</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01847176842675982</v>
+        <v>0.01856928975262512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1069,19 +1069,19 @@
         <v>11553</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6619</v>
+        <v>5857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19659</v>
+        <v>19473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008368495378621155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00479462639123034</v>
+        <v>0.004242839378766182</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01424020295113244</v>
+        <v>0.01410556390157294</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>9561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4268</v>
+        <v>5132</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17814</v>
+        <v>17242</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009941196471237451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004437864103653814</v>
+        <v>0.005336095348992628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01852190034543435</v>
+        <v>0.01792688026997259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1194,19 +1194,19 @@
         <v>14440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8770</v>
+        <v>8202</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23852</v>
+        <v>23868</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01492807511505686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009066501139248558</v>
+        <v>0.008478980086869601</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02465710388175456</v>
+        <v>0.02467384146911494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1215,19 +1215,19 @@
         <v>24002</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16246</v>
+        <v>15426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37090</v>
+        <v>34528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01244178745211276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008421344144565317</v>
+        <v>0.007996353455289963</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01922640902311383</v>
+        <v>0.01789830128283555</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>116795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96870</v>
+        <v>97955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>140139</v>
+        <v>141142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1214333379587354</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1007177522350761</v>
+        <v>0.1018451673218271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1457045042863798</v>
+        <v>0.1467475375384533</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -1265,19 +1265,19 @@
         <v>69884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55191</v>
+        <v>54119</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86794</v>
+        <v>87266</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07224386451987874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0570550544434564</v>
+        <v>0.05594642417643533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08972530216280879</v>
+        <v>0.09021308551867836</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>173</v>
@@ -1286,19 +1286,19 @@
         <v>186678</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160312</v>
+        <v>160998</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>217166</v>
+        <v>214541</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09676805884919526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08310071212922046</v>
+        <v>0.08345603586082299</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1125716217129124</v>
+        <v>0.1112111679244052</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>583419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>549443</v>
+        <v>553097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>613267</v>
+        <v>612705</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6065910905365576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5712652561457413</v>
+        <v>0.5750646738449899</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6376240870301553</v>
+        <v>0.6370394986884631</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>621</v>
@@ -1336,19 +1336,19 @@
         <v>662045</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>632951</v>
+        <v>632030</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>692441</v>
+        <v>688956</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6844027315610466</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6543259475372852</v>
+        <v>0.6533740047108073</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7158245615728949</v>
+        <v>0.7122225947582518</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1166</v>
@@ -1357,19 +1357,19 @@
         <v>1245465</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1203758</v>
+        <v>1201453</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1286028</v>
+        <v>1283792</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6456085003534368</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.623989243415465</v>
+        <v>0.6227940572635717</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6666351265715962</v>
+        <v>0.6654760659897967</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>244175</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>217398</v>
+        <v>214719</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>273537</v>
+        <v>268130</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.253872457612983</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2260320647460607</v>
+        <v>0.2232469642565148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2844011766317682</v>
+        <v>0.2787791373920501</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -1407,19 +1407,19 @@
         <v>212427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187328</v>
+        <v>187212</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>238950</v>
+        <v>239379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2196007115818642</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1936536907554818</v>
+        <v>0.1935346856006261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2470191191865493</v>
+        <v>0.2474628719426031</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>426</v>
@@ -1428,19 +1428,19 @@
         <v>456602</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>416537</v>
+        <v>419758</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492339</v>
+        <v>498836</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2366874356492986</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2159192856900106</v>
+        <v>0.2175887374175224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2552123756128727</v>
+        <v>0.2585801917756612</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>7850</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3200</v>
+        <v>3264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15635</v>
+        <v>14948</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008161917420486588</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003327608380837978</v>
+        <v>0.003393581564509735</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01625615538513966</v>
+        <v>0.01554213904815905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1478,19 +1478,19 @@
         <v>8536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4283</v>
+        <v>3876</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16502</v>
+        <v>17476</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008824617222153634</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004427341544144539</v>
+        <v>0.004007262513039194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01705913494059318</v>
+        <v>0.01806576554656742</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1499,19 +1499,19 @@
         <v>16386</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10038</v>
+        <v>9262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26739</v>
+        <v>25886</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008494217695956553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005203596977581686</v>
+        <v>0.004801021312843747</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01386066089488787</v>
+        <v>0.01341848963419994</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>8162</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3517</v>
+        <v>3591</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16252</v>
+        <v>17551</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01202928531767298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005183507488557586</v>
+        <v>0.005292773394856921</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02395242519879987</v>
+        <v>0.02586684246227157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1624,19 +1624,19 @@
         <v>9894</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4729</v>
+        <v>4645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18003</v>
+        <v>17520</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01446797602974521</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006915118670311256</v>
+        <v>0.006793210921777101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02632666239095855</v>
+        <v>0.02562033199560473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1645,19 +1645,19 @@
         <v>18056</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10469</v>
+        <v>10618</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29170</v>
+        <v>28499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01325340308714329</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007684336470806419</v>
+        <v>0.007793678097582223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02141137664024124</v>
+        <v>0.0209191796254122</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>68840</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53875</v>
+        <v>54185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85246</v>
+        <v>85471</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.101457169257778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07940243076903571</v>
+        <v>0.07985865067163034</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1256369529164835</v>
+        <v>0.1259683066183563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -1695,19 +1695,19 @@
         <v>58494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45704</v>
+        <v>45698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75420</v>
+        <v>74944</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08553692572955901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06683419812416397</v>
+        <v>0.06682547850531441</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1102893302666287</v>
+        <v>0.1095924200183634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -1716,19 +1716,19 @@
         <v>127333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>108553</v>
+        <v>105668</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148694</v>
+        <v>148887</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09346589225790461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07968034585176885</v>
+        <v>0.07756302201383165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1091449809870185</v>
+        <v>0.1092867495702627</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>405618</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>380036</v>
+        <v>379072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>432527</v>
+        <v>431901</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5978071406269122</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.560104628182865</v>
+        <v>0.5586842195819089</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6374674406328773</v>
+        <v>0.6365440233201923</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>432</v>
@@ -1766,19 +1766,19 @@
         <v>425371</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>400551</v>
+        <v>400653</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>451241</v>
+        <v>449957</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6220323191621671</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5857375457504481</v>
+        <v>0.5858866150884202</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6598625025972217</v>
+        <v>0.657985173971697</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>817</v>
@@ -1787,19 +1787,19 @@
         <v>830989</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>798153</v>
+        <v>794060</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>867295</v>
+        <v>870375</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6099671375329562</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5858646391421625</v>
+        <v>0.5828601814828986</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6366166893220527</v>
+        <v>0.6388773233117626</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>186322</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>160039</v>
+        <v>162539</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>208106</v>
+        <v>210856</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2746052145300933</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2358689317981073</v>
+        <v>0.2395529506202108</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3067113386226671</v>
+        <v>0.3107630418788079</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>186</v>
@@ -1837,19 +1837,19 @@
         <v>181628</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>158936</v>
+        <v>159485</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>203083</v>
+        <v>205053</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2655993471972602</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2324170846858855</v>
+        <v>0.2332187960659469</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2969737045225405</v>
+        <v>0.2998546568121524</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>357</v>
@@ -1858,19 +1858,19 @@
         <v>367950</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>334437</v>
+        <v>336948</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>398184</v>
+        <v>403788</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2700846567664376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2454852712703152</v>
+        <v>0.2473288150327124</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2922773925941541</v>
+        <v>0.2963909720119502</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>9568</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4684</v>
+        <v>5268</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17012</v>
+        <v>18219</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01410119026754348</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006903667835612941</v>
+        <v>0.007763443736282976</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02507328189645387</v>
+        <v>0.0268513837040111</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1908,19 +1908,19 @@
         <v>8455</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3789</v>
+        <v>3810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15126</v>
+        <v>15542</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01236343188126854</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005540673944964089</v>
+        <v>0.005571339631699124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02211953235061567</v>
+        <v>0.02272775002843208</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1929,19 +1929,19 @@
         <v>18022</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10993</v>
+        <v>11280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27869</v>
+        <v>27727</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01322891035555839</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008069268972579511</v>
+        <v>0.008279714983090202</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02045641121949313</v>
+        <v>0.02035246945955078</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>18600</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11313</v>
+        <v>11472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30301</v>
+        <v>28921</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01974046845321079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01200707843394394</v>
+        <v>0.01217563757712578</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0321588655217133</v>
+        <v>0.03069431748673319</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2054,19 +2054,19 @@
         <v>19608</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12121</v>
+        <v>12299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30553</v>
+        <v>30343</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01890028719482494</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01168355308963137</v>
+        <v>0.01185547180641587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02945062852152619</v>
+        <v>0.02924840936307697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2075,19 +2075,19 @@
         <v>38208</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26583</v>
+        <v>28273</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51594</v>
+        <v>53517</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01930017505835808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01342804786463218</v>
+        <v>0.01428204202746881</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02606229799810296</v>
+        <v>0.02703340661871897</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>144578</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>124389</v>
+        <v>123103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>167255</v>
+        <v>167118</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1534436943367821</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1320164113490572</v>
+        <v>0.1306514868414219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1775109602836929</v>
+        <v>0.1773663233965595</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>97</v>
@@ -2125,19 +2125,19 @@
         <v>99635</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>81810</v>
+        <v>82850</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>120608</v>
+        <v>121834</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0960402186613257</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07885823791529879</v>
+        <v>0.07986081599144576</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1162565839187621</v>
+        <v>0.117438885144496</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>250</v>
@@ -2146,19 +2146,19 @@
         <v>244213</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>217216</v>
+        <v>218255</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>275382</v>
+        <v>277016</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1233616484339151</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1097243319408003</v>
+        <v>0.1102495974685508</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1391067012352008</v>
+        <v>0.1399320103353864</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>522736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>492391</v>
+        <v>493530</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>549800</v>
+        <v>553034</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.554790629502946</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5225850452102027</v>
+        <v>0.5237939785959778</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5835147516691044</v>
+        <v>0.5869465432471663</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>584</v>
@@ -2196,19 +2196,19 @@
         <v>607692</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>578938</v>
+        <v>576356</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>643920</v>
+        <v>638097</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5857687542773347</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5580522220279722</v>
+        <v>0.5555637962312561</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6206896690824569</v>
+        <v>0.61507733006815</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1135</v>
@@ -2217,19 +2217,19 @@
         <v>1130428</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1083785</v>
+        <v>1085634</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1176348</v>
+        <v>1173827</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5710245832920253</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5474632663636044</v>
+        <v>0.5483977239592994</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5942208235575915</v>
+        <v>0.5929472263077364</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>231325</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>206440</v>
+        <v>206560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>257217</v>
+        <v>260399</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2455105451162319</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2190987622383201</v>
+        <v>0.2192265079552082</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2729895005945295</v>
+        <v>0.2763665848529205</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>274</v>
@@ -2267,19 +2267,19 @@
         <v>286433</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>256299</v>
+        <v>259198</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>314072</v>
+        <v>316900</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2761001404608037</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2470532021239887</v>
+        <v>0.2498471629509067</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3027411661417539</v>
+        <v>0.3054677284914363</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>520</v>
@@ -2288,19 +2288,19 @@
         <v>517759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>476110</v>
+        <v>481503</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>554764</v>
+        <v>561319</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2615408917194251</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2405025550483443</v>
+        <v>0.2432266256787458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2802338536298434</v>
+        <v>0.2835450807353434</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>24983</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15573</v>
+        <v>16473</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35358</v>
+        <v>36396</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02651466259082929</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01652841293994482</v>
+        <v>0.01748335801349171</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03752616605788634</v>
+        <v>0.03862792033926209</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2338,19 +2338,19 @@
         <v>24059</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15572</v>
+        <v>15649</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35406</v>
+        <v>37177</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02319059940571097</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01501001785065831</v>
+        <v>0.01508401076224508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03412889020585164</v>
+        <v>0.03583568042335752</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>49</v>
@@ -2359,19 +2359,19 @@
         <v>49041</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>37596</v>
+        <v>36921</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63656</v>
+        <v>64232</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02477270149627638</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01899135977229534</v>
+        <v>0.01865029975838008</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03215523750565536</v>
+        <v>0.03244637543749743</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>38277</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27437</v>
+        <v>27770</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54113</v>
+        <v>53404</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.011685413146105</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008375900668696439</v>
+        <v>0.008477773284677527</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01651978972038021</v>
+        <v>0.01630331228547549</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>45</v>
@@ -2484,19 +2484,19 @@
         <v>47430</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34382</v>
+        <v>34206</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>63616</v>
+        <v>61879</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01404921879361999</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0101841778618978</v>
+        <v>0.01013212670872046</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0188436415041565</v>
+        <v>0.01832917649505444</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>81</v>
@@ -2505,19 +2505,19 @@
         <v>85707</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68142</v>
+        <v>68322</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>106474</v>
+        <v>107103</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01288514093119944</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01024442590240466</v>
+        <v>0.01027144621570809</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01600719372512768</v>
+        <v>0.01610172087670169</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>416492</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>379485</v>
+        <v>380729</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>458090</v>
+        <v>455050</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1271477262642809</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1158499833455272</v>
+        <v>0.1162296622829518</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1398468603305908</v>
+        <v>0.1389186430978059</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>295</v>
@@ -2555,19 +2555,19 @@
         <v>301649</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>268211</v>
+        <v>265722</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>334608</v>
+        <v>332344</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08935156150686087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07944710992163612</v>
+        <v>0.07870984700184046</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0991144216446386</v>
+        <v>0.0984439272519993</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>705</v>
@@ -2576,19 +2576,19 @@
         <v>718141</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>670718</v>
+        <v>665949</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>771900</v>
+        <v>766615</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1079646309547515</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1008350952425225</v>
+        <v>0.1001181478978053</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1160467663254496</v>
+        <v>0.1152521620633856</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1937503</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1881240</v>
+        <v>1879900</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1992719</v>
+        <v>1989413</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5914853177933581</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5743093669032893</v>
+        <v>0.5739001301943232</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6083416312359781</v>
+        <v>0.607332634016902</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2064</v>
@@ -2626,19 +2626,19 @@
         <v>2115729</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2055473</v>
+        <v>2058032</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2168516</v>
+        <v>2168128</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.626701748829093</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6088532418472118</v>
+        <v>0.6096111161725647</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6423376593135348</v>
+        <v>0.6422227137903231</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3966</v>
@@ -2647,19 +2647,19 @@
         <v>4053232</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3967146</v>
+        <v>3972646</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4126014</v>
+        <v>4131923</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6093590930125051</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5964169166587774</v>
+        <v>0.5972437290776423</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6203009758103335</v>
+        <v>0.6211893323860322</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>836135</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>789765</v>
+        <v>790597</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>886647</v>
+        <v>889599</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2552572515124371</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2411012877866377</v>
+        <v>0.2413553126452909</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2706774602481354</v>
+        <v>0.2715786964533132</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>843</v>
@@ -2697,19 +2697,19 @@
         <v>863413</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>813166</v>
+        <v>816891</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>917616</v>
+        <v>915610</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2557522824127247</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2408685999602609</v>
+        <v>0.241971748225008</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2718076497459437</v>
+        <v>0.2712134937729807</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1660</v>
@@ -2718,19 +2718,19 @@
         <v>1699549</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1628092</v>
+        <v>1630204</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1770580</v>
+        <v>1777786</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.255508499886507</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2447657420826131</v>
+        <v>0.2450832573135995</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2661873715592537</v>
+        <v>0.2672707023309215</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>47249</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35389</v>
+        <v>35273</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62818</v>
+        <v>62063</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01442429128381885</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01080374652833734</v>
+        <v>0.01076811947743824</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01917731097910834</v>
+        <v>0.01894667439956564</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>47</v>
@@ -2768,19 +2768,19 @@
         <v>47754</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36340</v>
+        <v>36010</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63709</v>
+        <v>62307</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01414518845770146</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01076421062480087</v>
+        <v>0.01066642791183892</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01887130733673862</v>
+        <v>0.01845610430824304</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>95</v>
@@ -2789,19 +2789,19 @@
         <v>95003</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>77475</v>
+        <v>78160</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115716</v>
+        <v>116635</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01428263521503696</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01164758622865611</v>
+        <v>0.01175045647914678</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01739664612219314</v>
+        <v>0.01753479269736205</v>
       </c>
     </row>
     <row r="33">
@@ -3136,16 +3136,16 @@
         <v>737</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6681</v>
+        <v>7016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003562203385621336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001047373195124177</v>
+        <v>0.00104824350582056</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009496700734368979</v>
+        <v>0.009973503148142776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3154,19 +3154,19 @@
         <v>5033</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13409</v>
+        <v>13491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00724235653149743</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001748818001970608</v>
+        <v>0.001727301407367672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0192955103523859</v>
+        <v>0.01941383872243411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3175,19 +3175,19 @@
         <v>7539</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3029</v>
+        <v>3470</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15601</v>
+        <v>16245</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005391021343562594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002166090908272304</v>
+        <v>0.002481475103201577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01115616185166019</v>
+        <v>0.0116169421887857</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>40626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29830</v>
+        <v>29603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53838</v>
+        <v>55280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05775145097532895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04240417684385249</v>
+        <v>0.04208216563352256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07653150844352027</v>
+        <v>0.07858213002206269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -3225,19 +3225,19 @@
         <v>43416</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32361</v>
+        <v>30663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58272</v>
+        <v>57226</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06247627697600896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04656905015300618</v>
+        <v>0.0441255881392286</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08385516823903377</v>
+        <v>0.08234985822104783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -3246,19 +3246,19 @@
         <v>84042</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67180</v>
+        <v>68635</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103552</v>
+        <v>105562</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06009940941501349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04804106658163491</v>
+        <v>0.04908206135866937</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07405094594977665</v>
+        <v>0.07548886112603234</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>437072</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>409306</v>
+        <v>410482</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>464190</v>
+        <v>463677</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.621310162777443</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5818400175296917</v>
+        <v>0.5835110060034991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6598588630940786</v>
+        <v>0.6591287639452271</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>406</v>
@@ -3296,19 +3296,19 @@
         <v>436186</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>410726</v>
+        <v>411095</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>459040</v>
+        <v>462813</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6276850291518844</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.591046570085011</v>
+        <v>0.591578027649345</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6605713066637495</v>
+        <v>0.6660011223451734</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>822</v>
@@ -3317,19 +3317,19 @@
         <v>873259</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>835328</v>
+        <v>837029</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>911082</v>
+        <v>912499</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6244780934702509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5973532503130977</v>
+        <v>0.5985693915382657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.651525949532045</v>
+        <v>0.6525390284645101</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>209011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>185106</v>
+        <v>184962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>232197</v>
+        <v>235832</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2971152815714283</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2631335934912535</v>
+        <v>0.2629280706188723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3300740480752921</v>
+        <v>0.3352419363516378</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>187</v>
@@ -3367,19 +3367,19 @@
         <v>200053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176221</v>
+        <v>175435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>227599</v>
+        <v>223950</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2878814099860287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2535870951344811</v>
+        <v>0.252455704621158</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3275220506220055</v>
+        <v>0.322269999780221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>389</v>
@@ -3388,19 +3388,19 @@
         <v>409064</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373468</v>
+        <v>370714</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443033</v>
+        <v>442923</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2925265947675583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2670712456322982</v>
+        <v>0.2651018016757379</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3168185569010669</v>
+        <v>0.3167399486494986</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>14253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8081</v>
+        <v>7966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22983</v>
+        <v>24285</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02026090129017842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0114868448002533</v>
+        <v>0.01132328597688591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03267135262284504</v>
+        <v>0.03452229852610256</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -3438,19 +3438,19 @@
         <v>10226</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5120</v>
+        <v>5140</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18576</v>
+        <v>18629</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01471492735458053</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007367864546625447</v>
+        <v>0.007397198931448427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02673209012196519</v>
+        <v>0.02680769829070547</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -3459,19 +3459,19 @@
         <v>24479</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16446</v>
+        <v>15708</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36416</v>
+        <v>35710</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01750488100361477</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01176082829182824</v>
+        <v>0.01123311474037711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02604150047747262</v>
+        <v>0.02553631439598147</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>10881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5351</v>
+        <v>5374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19985</v>
+        <v>19761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01073320537535629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005278551724150921</v>
+        <v>0.005300576555261561</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01971282982626944</v>
+        <v>0.01949178598999665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3584,19 +3584,19 @@
         <v>12272</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6259</v>
+        <v>6402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22423</v>
+        <v>20606</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01190159812283611</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006069456766584193</v>
+        <v>0.006208144672412867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0217455675496085</v>
+        <v>0.01998354302166311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3605,19 +3605,19 @@
         <v>23154</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14845</v>
+        <v>14921</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36039</v>
+        <v>35499</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01132235893795197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007259552230072843</v>
+        <v>0.007296556529030843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01762360795564238</v>
+        <v>0.01735955604059807</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>74109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57559</v>
+        <v>59564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93994</v>
+        <v>94556</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07310032756334746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05677522140060574</v>
+        <v>0.05875322503668606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09271483311639221</v>
+        <v>0.09326937747517995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -3655,19 +3655,19 @@
         <v>90664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74750</v>
+        <v>73714</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110629</v>
+        <v>110855</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08792504372266369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0724920502588972</v>
+        <v>0.07148732421266663</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1072871740635959</v>
+        <v>0.1075062461508395</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>153</v>
@@ -3676,19 +3676,19 @@
         <v>164773</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>138405</v>
+        <v>140559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>190555</v>
+        <v>192013</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08057558308728832</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06768148642633917</v>
+        <v>0.06873455566523998</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09318317948985183</v>
+        <v>0.09389644764031868</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>627960</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>593887</v>
+        <v>595471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>660401</v>
+        <v>657448</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6194139776070023</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5858050125002501</v>
+        <v>0.5873674830840853</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6514137142185185</v>
+        <v>0.6485004345957373</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>574</v>
@@ -3726,19 +3726,19 @@
         <v>628784</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>593697</v>
+        <v>592318</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>660805</v>
+        <v>661769</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6097896482599934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5757621012386103</v>
+        <v>0.5744255136718104</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6408429946001123</v>
+        <v>0.6417782401325682</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1154</v>
@@ -3747,19 +3747,19 @@
         <v>1256745</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1211209</v>
+        <v>1206733</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1302942</v>
+        <v>1302594</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6145609793881971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5922934858261988</v>
+        <v>0.5901045474021992</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6371520524252702</v>
+        <v>0.6369818252822278</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>282306</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252871</v>
+        <v>251472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>311608</v>
+        <v>311699</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2784643885792087</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2494296674711013</v>
+        <v>0.2480497408395131</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3073676752471632</v>
+        <v>0.3074568456471868</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>237</v>
@@ -3797,19 +3797,19 @@
         <v>261951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>235430</v>
+        <v>231339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>293241</v>
+        <v>292358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2540383074356691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2283183438154681</v>
+        <v>0.2243506474389823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2843826370874633</v>
+        <v>0.2835260877862664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>492</v>
@@ -3818,19 +3818,19 @@
         <v>544258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>506906</v>
+        <v>507942</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>586289</v>
+        <v>586275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2661477144497194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2478823940376905</v>
+        <v>0.248389008562365</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2867015610703481</v>
+        <v>0.2866945514584213</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>18540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11815</v>
+        <v>10363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30731</v>
+        <v>28743</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01828810087508513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01165403151825015</v>
+        <v>0.01022189926266152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03031266363597157</v>
+        <v>0.02835158748298092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -3868,19 +3868,19 @@
         <v>37478</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26947</v>
+        <v>25279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52098</v>
+        <v>51486</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03634540245883779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02613258403073972</v>
+        <v>0.02451504598116205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05052426886948581</v>
+        <v>0.04993103195313005</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -3889,19 +3889,19 @@
         <v>56018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43100</v>
+        <v>41964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74323</v>
+        <v>72908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02739336413684319</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02107646706761358</v>
+        <v>0.02052105359303208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03634489987121779</v>
+        <v>0.03565294608221576</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>16757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10492</v>
+        <v>9434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27064</v>
+        <v>27942</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02214543432454945</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01386635276747638</v>
+        <v>0.01246753613271209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03576741055794697</v>
+        <v>0.03692713973195758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4014,19 +4014,19 @@
         <v>15721</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8907</v>
+        <v>8926</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26890</v>
+        <v>24858</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02040069521480627</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01155896901536185</v>
+        <v>0.01158390509857026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03489486132802867</v>
+        <v>0.03225809779864729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -4035,19 +4035,19 @@
         <v>32477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22076</v>
+        <v>22154</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45323</v>
+        <v>45906</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02126511311315844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01445450341865516</v>
+        <v>0.01450541425975969</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02967599075882148</v>
+        <v>0.0300576704629328</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>93014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75621</v>
+        <v>73793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112712</v>
+        <v>112928</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1229251309073963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09993955410325947</v>
+        <v>0.09752321886692958</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1489585117002858</v>
+        <v>0.1492433738506697</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>86</v>
@@ -4085,19 +4085,19 @@
         <v>93470</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75223</v>
+        <v>73308</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112541</v>
+        <v>111138</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1212963543741831</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0976175562903501</v>
+        <v>0.0951328165978354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.146044833111558</v>
+        <v>0.1442240402618046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -4106,19 +4106,19 @@
         <v>186484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161021</v>
+        <v>160610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>213450</v>
+        <v>214600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1221033194842463</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1054314265997198</v>
+        <v>0.1051623747869165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1397602663868058</v>
+        <v>0.1405128881031633</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>489363</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>461004</v>
+        <v>459018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>516855</v>
+        <v>516247</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6467325302656256</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6092532154183971</v>
+        <v>0.6066284374375231</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6830647228437243</v>
+        <v>0.6822623061725015</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>457</v>
@@ -4156,19 +4156,19 @@
         <v>507144</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>481411</v>
+        <v>479407</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>534171</v>
+        <v>533441</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6581233196708617</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6247296066682403</v>
+        <v>0.6221292951536912</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6931965941462399</v>
+        <v>0.692249335195119</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>900</v>
@@ -4177,19 +4177,19 @@
         <v>996507</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>957029</v>
+        <v>956905</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1037223</v>
+        <v>1034339</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.652479838543362</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6266310004247018</v>
+        <v>0.6265495545348249</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6791392397000505</v>
+        <v>0.6772507347693797</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>140688</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121368</v>
+        <v>118820</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>165323</v>
+        <v>162674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1859307134172711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1603974991942052</v>
+        <v>0.1570307717549699</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2184878804126767</v>
+        <v>0.2149871096277577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -4227,19 +4227,19 @@
         <v>130760</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>109130</v>
+        <v>109621</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>153558</v>
+        <v>153105</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1696877118754021</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1416186896189473</v>
+        <v>0.1422559695015651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1992729145530574</v>
+        <v>0.1986848125816822</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>251</v>
@@ -4248,19 +4248,19 @@
         <v>271448</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>238497</v>
+        <v>239701</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>302645</v>
+        <v>304489</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1777351850920827</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1561597796447945</v>
+        <v>0.1569479976945048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1981616787995945</v>
+        <v>0.1993691197502427</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>16848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9650</v>
+        <v>9711</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28611</v>
+        <v>28153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02226619108515756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01275313373583295</v>
+        <v>0.01283389701214085</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0378121483174514</v>
+        <v>0.03720634841037742</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -4298,19 +4298,19 @@
         <v>23497</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15214</v>
+        <v>14925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35661</v>
+        <v>35269</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03049191886474678</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01974339116871287</v>
+        <v>0.01936871771475855</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04627803260724644</v>
+        <v>0.04576888859696981</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -4319,19 +4319,19 @@
         <v>40345</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28978</v>
+        <v>29025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54592</v>
+        <v>54331</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02641654376715055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01897400545880642</v>
+        <v>0.01900457767074144</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03574485917663697</v>
+        <v>0.0355739932132783</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>17369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10659</v>
+        <v>10693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28566</v>
+        <v>27631</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01838321143489145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01128104932425937</v>
+        <v>0.01131762873828306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0302337536086006</v>
+        <v>0.0292441507551485</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -4444,19 +4444,19 @@
         <v>29817</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20256</v>
+        <v>19850</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42427</v>
+        <v>43647</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02845865384910054</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01933298934201057</v>
+        <v>0.01894585355679317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04049419777730997</v>
+        <v>0.04165899419622755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -4465,19 +4465,19 @@
         <v>47186</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35158</v>
+        <v>34173</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61741</v>
+        <v>61620</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02368108357730098</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01764482461669719</v>
+        <v>0.01715022396327268</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03098562484772257</v>
+        <v>0.03092532585258393</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>73887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>59707</v>
+        <v>58284</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92757</v>
+        <v>90656</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07820110821177825</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06319359756321605</v>
+        <v>0.06168732777991326</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09817290353474929</v>
+        <v>0.09594937721101289</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -4515,19 +4515,19 @@
         <v>85490</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>69622</v>
+        <v>70614</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106311</v>
+        <v>105953</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08159627662929078</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06645034240875951</v>
+        <v>0.06739777337263357</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1014683301943505</v>
+        <v>0.1011271738050965</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -4536,19 +4536,19 @@
         <v>159377</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>136992</v>
+        <v>137113</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>184900</v>
+        <v>186980</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07998635668409958</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06875192129408675</v>
+        <v>0.06881244883959381</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09279551861715006</v>
+        <v>0.09383938021071443</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>535206</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>505519</v>
+        <v>501298</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>566624</v>
+        <v>563387</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5664581548524075</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5350379376141694</v>
+        <v>0.5305696007947517</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.599710248384557</v>
+        <v>0.5962841440962613</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>573</v>
@@ -4586,19 +4586,19 @@
         <v>595494</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>563271</v>
+        <v>561144</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>626598</v>
+        <v>625195</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.568368533358935</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5376136030854165</v>
+        <v>0.5355828159653896</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.598055945165584</v>
+        <v>0.5967163437341018</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1093</v>
@@ -4607,19 +4607,19 @@
         <v>1130700</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1087809</v>
+        <v>1085604</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1176515</v>
+        <v>1176695</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5674626706498395</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5459370569646395</v>
+        <v>0.5448302796738482</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5904557523119421</v>
+        <v>0.5905462210343381</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>288856</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>258350</v>
+        <v>261181</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>315510</v>
+        <v>319409</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3057227786200388</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2734358006982348</v>
+        <v>0.2764316649563164</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3339335481788731</v>
+        <v>0.3380603509642707</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>290</v>
@@ -4657,19 +4657,19 @@
         <v>306739</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>277683</v>
+        <v>280272</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>334876</v>
+        <v>337406</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2927663465221319</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2650344334688609</v>
+        <v>0.2675054699526579</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3196220822240908</v>
+        <v>0.3220367622840529</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>560</v>
@@ -4678,19 +4678,19 @@
         <v>595594</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>556226</v>
+        <v>554080</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>638279</v>
+        <v>638217</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2989100236208421</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2791521518122771</v>
+        <v>0.2780750512908469</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3203320421874409</v>
+        <v>0.3203011849855574</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>29511</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20156</v>
+        <v>19112</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43482</v>
+        <v>42943</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03123474688088412</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02133336721011668</v>
+        <v>0.02022817565452883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04602097966416875</v>
+        <v>0.04545068174597029</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -4728,19 +4728,19 @@
         <v>30185</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20615</v>
+        <v>19788</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42107</v>
+        <v>43249</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02881018964054181</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01967579295579531</v>
+        <v>0.01888691670382947</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04018930365213925</v>
+        <v>0.04127931546140459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>55</v>
@@ -4749,19 +4749,19 @@
         <v>59697</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44483</v>
+        <v>45705</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>76288</v>
+        <v>77545</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02995986546791788</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02232442226736508</v>
+        <v>0.02293809080351456</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03828629490086906</v>
+        <v>0.03891744199526731</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>47513</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34482</v>
+        <v>34926</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63738</v>
+        <v>64283</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01389769934533897</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01008596995121471</v>
+        <v>0.01021600957337964</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01864356207411191</v>
+        <v>0.01880300365934095</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -4874,19 +4874,19 @@
         <v>62843</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>48837</v>
+        <v>47334</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>81992</v>
+        <v>81345</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01773020983993179</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01377869344477538</v>
+        <v>0.01335455402218139</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02313298764109078</v>
+        <v>0.02295050997653593</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>101</v>
@@ -4895,19 +4895,19 @@
         <v>110356</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>89170</v>
+        <v>90827</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>132185</v>
+        <v>133926</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01584852351836127</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01280594478223207</v>
+        <v>0.01304398765441818</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01898348947646153</v>
+        <v>0.01923359087447047</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>281636</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>247089</v>
+        <v>248441</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>315262</v>
+        <v>315980</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08237936589779828</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07227423516302789</v>
+        <v>0.07266978152329119</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09221515073716949</v>
+        <v>0.09242506714748872</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>291</v>
@@ -4945,19 +4945,19 @@
         <v>313040</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>278655</v>
+        <v>278602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>351683</v>
+        <v>348194</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08832007885558341</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07861895517708779</v>
+        <v>0.07860398377197128</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0992228795827577</v>
+        <v>0.09823823688519739</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>558</v>
@@ -4966,19 +4966,19 @@
         <v>594676</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>549669</v>
+        <v>548813</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>642065</v>
+        <v>646835</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08540330711319352</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07893976280769216</v>
+        <v>0.07881680573874561</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09220908066238546</v>
+        <v>0.09289412994724776</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>2089602</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2032172</v>
+        <v>2037159</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2151711</v>
+        <v>2151638</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6112153641735469</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5944168763072823</v>
+        <v>0.5958757305445221</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6293825003102661</v>
+        <v>0.6293610823637683</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2010</v>
@@ -5016,19 +5016,19 @@
         <v>2167609</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2104943</v>
+        <v>2111756</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2222654</v>
+        <v>2226179</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6115623951818228</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5938821336647229</v>
+        <v>0.5958041429842077</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6270927233003446</v>
+        <v>0.6280872772136213</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3969</v>
@@ -5037,19 +5037,19 @@
         <v>4257211</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4168498</v>
+        <v>4171117</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4342822</v>
+        <v>4331774</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6113920098685002</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5986516554072233</v>
+        <v>0.5990278115857222</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6236869127864977</v>
+        <v>0.6221003192258995</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>920862</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>866659</v>
+        <v>864856</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>972965</v>
+        <v>969658</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2693550616328956</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.253500717406303</v>
+        <v>0.2529732340943661</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2845955723970875</v>
+        <v>0.2836282086322682</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>834</v>
@@ -5087,19 +5087,19 @@
         <v>899503</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>847100</v>
+        <v>844138</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>948136</v>
+        <v>952824</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2537828390408371</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2389981458761946</v>
+        <v>0.2381623588154542</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2675039977708483</v>
+        <v>0.2688266756789706</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1692</v>
@@ -5108,19 +5108,19 @@
         <v>1820364</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1747956</v>
+        <v>1745607</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1908290</v>
+        <v>1895364</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2614284901849812</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2510296695930685</v>
+        <v>0.2506923650715666</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2740558110640336</v>
+        <v>0.2721994112911526</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>79153</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>61797</v>
+        <v>62517</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>98500</v>
+        <v>101234</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02315250895042012</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01807583172325046</v>
+        <v>0.01828653233161738</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02881154858630372</v>
+        <v>0.02961140834036752</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>94</v>
@@ -5158,19 +5158,19 @@
         <v>101385</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>81937</v>
+        <v>81321</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>122685</v>
+        <v>125759</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02860447708182499</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02311750170675666</v>
+        <v>0.02294372475256344</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0346138603873622</v>
+        <v>0.0354813796727885</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>167</v>
@@ -5179,19 +5179,19 @@
         <v>180538</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>152354</v>
+        <v>153139</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>209991</v>
+        <v>208269</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02592766931496384</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02188005121275587</v>
+        <v>0.02199285915909999</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03015753056520791</v>
+        <v>0.02991024243833076</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>6481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2642</v>
+        <v>2830</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15241</v>
+        <v>13969</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009658925521223235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003937031410911875</v>
+        <v>0.004217348310319506</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02271497693697321</v>
+        <v>0.02081837074626395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5544,19 +5544,19 @@
         <v>9326</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17247</v>
+        <v>17429</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01394951138217995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006428306280511157</v>
+        <v>0.006424446789893824</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02579884566741183</v>
+        <v>0.02607119182519138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -5565,19 +5565,19 @@
         <v>15807</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8955</v>
+        <v>9039</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25527</v>
+        <v>25406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01180028280301502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006685025641473623</v>
+        <v>0.006748206226702399</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01905677900415244</v>
+        <v>0.0189669253296034</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>73495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57566</v>
+        <v>58332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90591</v>
+        <v>91024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1095326520368253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08579333571064199</v>
+        <v>0.08693469201141504</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1350117873927818</v>
+        <v>0.1356578354714509</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -5615,19 +5615,19 @@
         <v>66424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53100</v>
+        <v>51519</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84385</v>
+        <v>83465</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09935908483588189</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07942832715114252</v>
+        <v>0.07706371323110935</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1262250186047369</v>
+        <v>0.124848866488145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>138</v>
@@ -5636,19 +5636,19 @@
         <v>139919</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118209</v>
+        <v>118986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163239</v>
+        <v>163591</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1044552003988617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08824777194539923</v>
+        <v>0.08882819840514652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1218651072816996</v>
+        <v>0.1221279430687926</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>370638</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>343960</v>
+        <v>345566</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>397042</v>
+        <v>397635</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5523812173575832</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5126205715338619</v>
+        <v>0.5150150771585782</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.591731870602863</v>
+        <v>0.5926157665324803</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>374</v>
@@ -5686,19 +5686,19 @@
         <v>377375</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>352813</v>
+        <v>350577</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>403542</v>
+        <v>400961</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5644877338156655</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5277477249951235</v>
+        <v>0.5244034898661264</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6036287382366096</v>
+        <v>0.5997687911722365</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>732</v>
@@ -5707,19 +5707,19 @@
         <v>748013</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>710693</v>
+        <v>711007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>783368</v>
+        <v>786394</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5584233705773922</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5305619995402057</v>
+        <v>0.5307967570573318</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5848170951432797</v>
+        <v>0.5870760795530494</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>205443</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179836</v>
+        <v>181015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>227097</v>
+        <v>230159</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3061826708553397</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.268018841587209</v>
+        <v>0.2697764945625012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3384537834723949</v>
+        <v>0.3430181246163085</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>201</v>
@@ -5757,19 +5757,19 @@
         <v>204645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>182133</v>
+        <v>182334</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>229429</v>
+        <v>229823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3061131746768037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2724394403182418</v>
+        <v>0.2727404207803767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.343186978512685</v>
+        <v>0.3437751997807671</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>401</v>
@@ -5778,19 +5778,19 @@
         <v>410088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>377553</v>
+        <v>375781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443461</v>
+        <v>447148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3061479865132039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2818590977492664</v>
+        <v>0.2805361625070277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3310622278648701</v>
+        <v>0.3338145057652862</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>14926</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8175</v>
+        <v>8957</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25268</v>
+        <v>24513</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02224453422902861</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01218412749421231</v>
+        <v>0.01334941565193749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03765781726024264</v>
+        <v>0.03653359235178291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -5828,19 +5828,19 @@
         <v>10757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5464</v>
+        <v>5202</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19671</v>
+        <v>19495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01609049528946894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00817317742881192</v>
+        <v>0.007780923979569174</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02942497655630677</v>
+        <v>0.02916072901715737</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -5849,19 +5849,19 @@
         <v>25683</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16262</v>
+        <v>17471</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38076</v>
+        <v>37440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01917315970752728</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01214019880533064</v>
+        <v>0.01304270810281545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02842510060152148</v>
+        <v>0.02795032468945948</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>3007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8876</v>
+        <v>8316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002950054731345382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.000891746070988213</v>
+        <v>0.0008924468043960465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008707544240487338</v>
+        <v>0.008158455913434866</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5974,19 +5974,19 @@
         <v>10107</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4971</v>
+        <v>5155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18301</v>
+        <v>17537</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009741711563083821</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004791736088923931</v>
+        <v>0.004968819684082189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01763966829044759</v>
+        <v>0.01690386096417305</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -5995,19 +5995,19 @@
         <v>13114</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7421</v>
+        <v>7536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23102</v>
+        <v>21397</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006375885263613184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003608253244067687</v>
+        <v>0.003664087905438199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01123203613108492</v>
+        <v>0.01040346789707984</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>103109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83927</v>
+        <v>84878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123727</v>
+        <v>125274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1011574832758773</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08233827223849037</v>
+        <v>0.08327115936731654</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.121384680904798</v>
+        <v>0.1229020259824149</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -6045,19 +6045,19 @@
         <v>90535</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72600</v>
+        <v>72755</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109233</v>
+        <v>112758</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08726553121613534</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06997792606259304</v>
+        <v>0.07012762731856868</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1052877078343329</v>
+        <v>0.1086860479260416</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -6066,19 +6066,19 @@
         <v>193644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>166416</v>
+        <v>171118</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>222387</v>
+        <v>221380</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09415013960435045</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08091187896029703</v>
+        <v>0.08319788641931007</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1081246172651447</v>
+        <v>0.1076354069335469</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>585974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>551276</v>
+        <v>555857</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>617824</v>
+        <v>619991</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5748813060978836</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5408399340258334</v>
+        <v>0.5453346983067421</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6061280926521252</v>
+        <v>0.6082544478972022</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>556</v>
@@ -6116,19 +6116,19 @@
         <v>595479</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>562136</v>
+        <v>566504</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>626776</v>
+        <v>629366</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5739740524160022</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5418355049736182</v>
+        <v>0.546045268760224</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6041406075919948</v>
+        <v>0.6066375017135972</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1101</v>
@@ -6137,19 +6137,19 @@
         <v>1181453</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1137096</v>
+        <v>1133512</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1222977</v>
+        <v>1225857</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5744236714674975</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5528571798496624</v>
+        <v>0.5511146300587966</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5946128301677541</v>
+        <v>0.5960129972143181</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>313380</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>285044</v>
+        <v>284338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>346188</v>
+        <v>342697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3074471838993145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.279648287196648</v>
+        <v>0.2789557537350799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3396343250269553</v>
+        <v>0.3362092404125308</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>302</v>
@@ -6187,19 +6187,19 @@
         <v>320469</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>292832</v>
+        <v>289105</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>352912</v>
+        <v>350054</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3088959475185843</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2822563240728956</v>
+        <v>0.27866430794293</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.34016709704837</v>
+        <v>0.3374118589819071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>596</v>
@@ -6208,19 +6208,19 @@
         <v>633849</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>596438</v>
+        <v>589651</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>677541</v>
+        <v>679643</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3081779656163381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2899888264714258</v>
+        <v>0.2866889240728664</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.329421003226523</v>
+        <v>0.3304430254530293</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>13826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7236</v>
+        <v>7823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23989</v>
+        <v>24793</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01356397199557928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007098902677833434</v>
+        <v>0.007674742472422208</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02353479745244967</v>
+        <v>0.02432332906741526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -6258,19 +6258,19 @@
         <v>20877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13142</v>
+        <v>13062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31335</v>
+        <v>30637</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02012275728619438</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01266771270041436</v>
+        <v>0.01259047246957592</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03020373146538537</v>
+        <v>0.02953094393483163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -6279,19 +6279,19 @@
         <v>34702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24031</v>
+        <v>24360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48472</v>
+        <v>49736</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01687233804820075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01168375891320661</v>
+        <v>0.01184409707311969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02356711704108016</v>
+        <v>0.02418147916426051</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>16401</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9599</v>
+        <v>9502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26135</v>
+        <v>25763</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02177215703733143</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01274311380434281</v>
+        <v>0.01261342783262242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03469424515719906</v>
+        <v>0.03419969409261235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -6404,19 +6404,19 @@
         <v>14190</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7169</v>
+        <v>7544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22904</v>
+        <v>23615</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01807558473391649</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009132690226586368</v>
+        <v>0.009609513768903509</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02917627509368494</v>
+        <v>0.03008212623149723</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -6425,19 +6425,19 @@
         <v>30591</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20093</v>
+        <v>20483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43547</v>
+        <v>42882</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01988577213275512</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0130619507304671</v>
+        <v>0.01331529821494187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02830820892858829</v>
+        <v>0.02787596053761266</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>62227</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47805</v>
+        <v>46336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78602</v>
+        <v>79514</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08260514509315774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06346013310003429</v>
+        <v>0.0615108180157563</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1043434321961674</v>
+        <v>0.1055544450880973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -6475,19 +6475,19 @@
         <v>86446</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69980</v>
+        <v>70946</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106748</v>
+        <v>106745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1101204783076195</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08914583866273322</v>
+        <v>0.09037591047802163</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1359827233397898</v>
+        <v>0.1359794635066561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>137</v>
@@ -6496,19 +6496,19 @@
         <v>148672</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126463</v>
+        <v>125950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>174007</v>
+        <v>177708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09664639870862139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08220858376830663</v>
+        <v>0.08187540242776128</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1131157546063099</v>
+        <v>0.1155213220573811</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>357360</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>330006</v>
+        <v>330739</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>387614</v>
+        <v>384042</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.474391059131972</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4380797630396556</v>
+        <v>0.4390527868121657</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5145536856134195</v>
+        <v>0.5098119119546654</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>349</v>
@@ -6546,19 +6546,19 @@
         <v>370307</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>343218</v>
+        <v>342536</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>399836</v>
+        <v>401410</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4717214325792967</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.43721397157548</v>
+        <v>0.4363451825655985</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5093377374730588</v>
+        <v>0.5113427987831233</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>678</v>
@@ -6567,19 +6567,19 @@
         <v>727666</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>687384</v>
+        <v>689900</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>766493</v>
+        <v>767046</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4730287313275975</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4468427027467006</v>
+        <v>0.4484781575265956</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4982685881229136</v>
+        <v>0.4986277608860514</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>284635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>259150</v>
+        <v>257512</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>312857</v>
+        <v>312345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3778503716888466</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3440189130636278</v>
+        <v>0.3418448578393392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4153140556290254</v>
+        <v>0.414633856295577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>258</v>
@@ -6617,19 +6617,19 @@
         <v>276861</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>248959</v>
+        <v>246043</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>306732</v>
+        <v>303674</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3526837041039773</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3171401645865696</v>
+        <v>0.3134260450302806</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3907362569195755</v>
+        <v>0.386840542060071</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>521</v>
@@ -6638,19 +6638,19 @@
         <v>561496</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>525082</v>
+        <v>523501</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>602174</v>
+        <v>598746</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3650076574298206</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3413360598347137</v>
+        <v>0.3403085232098635</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3914508705176112</v>
+        <v>0.3892227086235836</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>32679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21574</v>
+        <v>22671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46004</v>
+        <v>46045</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0433812670486923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02863963776769039</v>
+        <v>0.0300952147225438</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06107013571528448</v>
+        <v>0.06112361962489816</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -6688,19 +6688,19 @@
         <v>37209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25744</v>
+        <v>25595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50344</v>
+        <v>51493</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04739880027519006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.032794194188783</v>
+        <v>0.03260498728481395</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06413099062194694</v>
+        <v>0.06559528794807017</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -6709,19 +6709,19 @@
         <v>69888</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54171</v>
+        <v>54213</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>89008</v>
+        <v>88199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04543144040120536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03521435361568849</v>
+        <v>0.03524207059521301</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05786069499415956</v>
+        <v>0.05733502320169278</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>7971</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3557</v>
+        <v>3747</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15429</v>
+        <v>14423</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008528149013572284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003805343142001607</v>
+        <v>0.004009536456375929</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01650870538377332</v>
+        <v>0.01543213437946519</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -6834,19 +6834,19 @@
         <v>22307</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14283</v>
+        <v>13859</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33304</v>
+        <v>34144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02141769605057164</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01371392629009171</v>
+        <v>0.01330658473696917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03197674516143123</v>
+        <v>0.03278344957467377</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -6855,19 +6855,19 @@
         <v>30277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19544</v>
+        <v>20973</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43247</v>
+        <v>44474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01532149086665581</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009889871609522012</v>
+        <v>0.01061291053471827</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02188450255322577</v>
+        <v>0.02250573653431974</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>102951</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83736</v>
+        <v>85684</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123546</v>
+        <v>125129</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1101514565259487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08959234748152559</v>
+        <v>0.09167754857404539</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1321875156316835</v>
+        <v>0.1338811132011324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>97</v>
@@ -6905,19 +6905,19 @@
         <v>106191</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>86739</v>
+        <v>85628</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>126323</v>
+        <v>126894</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1019591697321998</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08328228308422315</v>
+        <v>0.08221571106927414</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1212884635881972</v>
+        <v>0.1218366523939588</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>194</v>
@@ -6926,19 +6926,19 @@
         <v>209142</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>180928</v>
+        <v>183429</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>237776</v>
+        <v>239388</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1058337714600045</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09155626292976859</v>
+        <v>0.09282228790534489</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1203236904907821</v>
+        <v>0.1211392142941083</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>549113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>520517</v>
+        <v>521453</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>577748</v>
+        <v>580440</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5875204968607246</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5569237640729354</v>
+        <v>0.5579251963755507</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.618158226589537</v>
+        <v>0.6210387736672748</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>553</v>
@@ -6976,19 +6976,19 @@
         <v>597397</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>567140</v>
+        <v>566290</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>633154</v>
+        <v>635107</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5735882381172531</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5445377091641769</v>
+        <v>0.5437216608940428</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6079207168769907</v>
+        <v>0.6097960610667582</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1099</v>
@@ -6997,19 +6997,19 @@
         <v>1146510</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1100927</v>
+        <v>1101189</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1190815</v>
+        <v>1191166</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5801776013999042</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5571107699470277</v>
+        <v>0.5572437735875239</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.602597500311879</v>
+        <v>0.6027754144200522</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>260454</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>230891</v>
+        <v>233056</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>285991</v>
+        <v>288042</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2786710951941385</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.247040084076864</v>
+        <v>0.2493566204383154</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3059941319863881</v>
+        <v>0.3081893825748385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>274</v>
@@ -7047,19 +7047,19 @@
         <v>300735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>269847</v>
+        <v>270298</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>331721</v>
+        <v>331059</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2887499519781135</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2590929819527942</v>
+        <v>0.2595255463180008</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3185009747229794</v>
+        <v>0.3178653032223375</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>538</v>
@@ -7068,19 +7068,19 @@
         <v>561189</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>523300</v>
+        <v>522652</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>600383</v>
+        <v>606516</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2839830832279516</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2648097456862687</v>
+        <v>0.2644816296765971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3038164283635107</v>
+        <v>0.3069201390579589</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>14140</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7810</v>
+        <v>7877</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23003</v>
+        <v>23915</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01512880240561589</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008356569202604563</v>
+        <v>0.008427724352458907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02461163591305308</v>
+        <v>0.02558726330221624</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -7118,19 +7118,19 @@
         <v>14878</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8116</v>
+        <v>8484</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24559</v>
+        <v>25391</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01428494412186187</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007792202809527649</v>
+        <v>0.008146228473436974</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02358037480865841</v>
+        <v>0.02437870877128073</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -7139,19 +7139,19 @@
         <v>29018</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20348</v>
+        <v>19845</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41767</v>
+        <v>42032</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01468405304548384</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01029690376022271</v>
+        <v>0.01004214418988333</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02113553002047048</v>
+        <v>0.02126987414514944</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>33860</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22788</v>
+        <v>23050</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45799</v>
+        <v>46832</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01002294725909459</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006745722274736837</v>
+        <v>0.006823093286469246</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01355728059317929</v>
+        <v>0.01386309410696685</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -7264,19 +7264,19 @@
         <v>55929</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>41828</v>
+        <v>43223</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>71904</v>
+        <v>72859</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01583251552551437</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01184074722522613</v>
+        <v>0.01223582093270166</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02035494426230511</v>
+        <v>0.02062524834643535</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>84</v>
@@ -7285,19 +7285,19 @@
         <v>89788</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>70193</v>
+        <v>71632</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>111028</v>
+        <v>112096</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01299258981391257</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01015709972640251</v>
+        <v>0.01036534108166622</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01606603482916434</v>
+        <v>0.01622061423900854</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>341781</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>306618</v>
+        <v>304303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>378993</v>
+        <v>381645</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1011723154359604</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09076337065814877</v>
+        <v>0.09007827315099787</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1121875036411684</v>
+        <v>0.1129725432202197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>332</v>
@@ -7335,19 +7335,19 @@
         <v>349596</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>314265</v>
+        <v>311751</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>385383</v>
+        <v>388384</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09896535905745177</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08896355506572698</v>
+        <v>0.08825180015178452</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.10909595835269</v>
+        <v>0.1099455999641452</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>647</v>
@@ -7356,19 +7356,19 @@
         <v>691377</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>645867</v>
+        <v>633784</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>752613</v>
+        <v>739136</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1000441986331803</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09345877525834977</v>
+        <v>0.09171027034580945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1089050972702732</v>
+        <v>0.1069549388764774</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1863085</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1805401</v>
+        <v>1805438</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1922187</v>
+        <v>1919448</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5515009486377626</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5344257132837664</v>
+        <v>0.5344364840802692</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5689960968356524</v>
+        <v>0.5681852830279215</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1832</v>
@@ -7406,19 +7406,19 @@
         <v>1940557</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1882296</v>
+        <v>1882017</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2005556</v>
+        <v>2001026</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5493419733737094</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5328491774101818</v>
+        <v>0.5327701931628327</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5677422093381793</v>
+        <v>0.5664596595500389</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3610</v>
@@ -7427,19 +7427,19 @@
         <v>3803642</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3724217</v>
+        <v>3717637</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3893484</v>
+        <v>3891816</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5503973580566878</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5389043917872753</v>
+        <v>0.5379522028296537</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5633977834727267</v>
+        <v>0.5631564174147511</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1063912</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1007377</v>
+        <v>1010488</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1118152</v>
+        <v>1120179</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.314933827613973</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2981987602177656</v>
+        <v>0.2991195184705423</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3309895764457623</v>
+        <v>0.3315898232776875</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1035</v>
@@ -7477,19 +7477,19 @@
         <v>1102710</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1044139</v>
+        <v>1051549</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1158497</v>
+        <v>1159297</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3121602817049986</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2955797183011178</v>
+        <v>0.2976773863243635</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3279528615953378</v>
+        <v>0.3281791434216694</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2056</v>
@@ -7498,19 +7498,19 @@
         <v>2166622</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2082757</v>
+        <v>2089208</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2243398</v>
+        <v>2242006</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3135160906012866</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3013806364716675</v>
+        <v>0.3023141048552891</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3246257547169871</v>
+        <v>0.3244243794738133</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>75570</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59086</v>
+        <v>59955</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96705</v>
+        <v>96568</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02236996105320944</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01749025127929186</v>
+        <v>0.01774759938861817</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02862598438696792</v>
+        <v>0.02858562398381091</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>76</v>
@@ -7548,19 +7548,19 @@
         <v>83720</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>66124</v>
+        <v>67196</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>104846</v>
+        <v>103708</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02369987033832589</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0187186753700036</v>
+        <v>0.0190220991271188</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02968041727006081</v>
+        <v>0.02935811938227737</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>146</v>
@@ -7569,19 +7569,19 @@
         <v>159290</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>134002</v>
+        <v>135464</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>186133</v>
+        <v>186819</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02304976289493273</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01939046403853841</v>
+        <v>0.01960205950207161</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02693398779261049</v>
+        <v>0.0270331846983979</v>
       </c>
     </row>
     <row r="33">
